--- a/CRMAutomationMaven/Test Data/Contacts.xlsx
+++ b/CRMAutomationMaven/Test Data/Contacts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>TCID</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Auto23012017121822</t>
+  </si>
+  <si>
+    <t>Auto28012017074528</t>
+  </si>
+  <si>
+    <t>Auto28012017074602</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
@@ -563,7 +569,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>24</v>

--- a/CRMAutomationMaven/Test Data/Contacts.xlsx
+++ b/CRMAutomationMaven/Test Data/Contacts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>TCID</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Auto28012017074602</t>
+  </si>
+  <si>
+    <t>Auto28012017094932</t>
+  </si>
+  <si>
+    <t>Auto28012017094955</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
@@ -569,7 +575,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>24</v>

--- a/CRMAutomationMaven/Test Data/Contacts.xlsx
+++ b/CRMAutomationMaven/Test Data/Contacts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>TCID</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>Auto28012017094955</t>
+  </si>
+  <si>
+    <t>Auto09022017131845</t>
+  </si>
+  <si>
+    <t>Auto09022017131912</t>
+  </si>
+  <si>
+    <t>Auto09022017132229</t>
+  </si>
+  <si>
+    <t>Auto09022017132248</t>
+  </si>
+  <si>
+    <t>Auto10022017073401</t>
+  </si>
+  <si>
+    <t>Auto10022017073427</t>
   </si>
 </sst>
 </file>
@@ -543,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
@@ -575,7 +593,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>24</v>

--- a/CRMAutomationMaven/Test Data/Contacts.xlsx
+++ b/CRMAutomationMaven/Test Data/Contacts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>Auto10022017073427</t>
+  </si>
+  <si>
+    <t>Auto10022017075058</t>
+  </si>
+  <si>
+    <t>Auto10022017075119</t>
   </si>
 </sst>
 </file>
@@ -561,7 +567,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>24</v>
@@ -593,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>24</v>

--- a/CRMAutomationMaven/Test Data/Contacts.xlsx
+++ b/CRMAutomationMaven/Test Data/Contacts.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium Programs\CRMAutomationMaven\Test Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView windowHeight="2925" windowWidth="12825" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>TCID</t>
   </si>
@@ -80,9 +75,6 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>loginName</t>
   </si>
   <si>
@@ -95,66 +87,24 @@
     <t>Password11</t>
   </si>
   <si>
-    <t>Auto12012017135644</t>
+    <t>Auto10022017111940</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Auto12012017135709</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
-  </si>
-  <si>
-    <t>Auto23012017121758</t>
-  </si>
-  <si>
-    <t>Auto23012017121822</t>
-  </si>
-  <si>
-    <t>Auto28012017074528</t>
-  </si>
-  <si>
-    <t>Auto28012017074602</t>
-  </si>
-  <si>
-    <t>Auto28012017094932</t>
-  </si>
-  <si>
-    <t>Auto28012017094955</t>
-  </si>
-  <si>
-    <t>Auto09022017131845</t>
-  </si>
-  <si>
-    <t>Auto09022017131912</t>
-  </si>
-  <si>
-    <t>Auto09022017132229</t>
-  </si>
-  <si>
-    <t>Auto09022017132248</t>
-  </si>
-  <si>
-    <t>Auto10022017073401</t>
-  </si>
-  <si>
-    <t>Auto10022017073427</t>
-  </si>
-  <si>
-    <t>Auto10022017075058</t>
-  </si>
-  <si>
-    <t>Auto10022017075119</t>
+    <t>Auto10022017112011</t>
+  </si>
+  <si>
+    <t>Auto10022017112045</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,14 +446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
@@ -511,11 +461,11 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="34.7109375" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.42578125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -541,13 +491,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -567,19 +517,19 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -599,19 +549,19 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -619,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -630,15 +580,17 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/CRMAutomationMaven/Test Data/Contacts.xlsx
+++ b/CRMAutomationMaven/Test Data/Contacts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>TCID</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>Auto10022017112045</t>
+  </si>
+  <si>
+    <t>Auto03032017122352</t>
+  </si>
+  <si>
+    <t>Auto03032017122428</t>
+  </si>
+  <si>
+    <t>Auto03032017122519</t>
+  </si>
+  <si>
+    <t>Auto03032017130144</t>
+  </si>
+  <si>
+    <t>Auto03032017130232</t>
+  </si>
+  <si>
+    <t>Auto03032017130309</t>
   </si>
 </sst>
 </file>
@@ -461,8 +479,8 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="34.7109375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.42578125" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -517,7 +535,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
@@ -549,7 +567,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -581,7 +599,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>23</v>
